--- a/plosdata/src/main/resources/plos_articles_2.xlsx
+++ b/plosdata/src/main/resources/plos_articles_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="200" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="380" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>PLOS articles citation</t>
   </si>
@@ -48,22 +48,25 @@
     <t>Department of Chemistry and Biochemistry</t>
   </si>
   <si>
-    <t>N/F</t>
-  </si>
-  <si>
-    <t>http://www.plosbiology.org/article/fetchObject.action?uri=info%3Adoi%2F10.1371%2Fjournal.pbio.0030013&amp;representation=PDF</t>
-  </si>
-  <si>
-    <t>10.1371/journal.pbio.0030013</t>
-  </si>
-  <si>
     <t>Bruce A Roe</t>
   </si>
   <si>
     <t>Bedell JA, Budiman MA, Nunberg A, Citek RW, Robbins D, et al. (2005) Sorghum Genome Sequencing by Methylation Filtration. PLoS Biol 3(1): e13. doi:10.1371/journal.pbio.0030013</t>
   </si>
   <si>
-    <t>Repetitive</t>
+    <t>Structure and Dynamics of Amyloid-β Segmental Polymorphisms</t>
+  </si>
+  <si>
+    <t>Workalemahu M. Berhanu</t>
+  </si>
+  <si>
+    <t>Chemistry and Biochemistry</t>
+  </si>
+  <si>
+    <t>Berhanu WM, Hansmann UHE (2012) Structure and Dynamics of Amyloid-β Segmental Polymorphisms. PLoS ONE 7(7): e41479. doi:10.1371/journal.pone.0041479</t>
+  </si>
+  <si>
+    <t>Ulrich H. E. Hansmann</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -195,6 +198,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -509,7 +561,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -537,8 +589,17 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="311">
@@ -1181,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1197,7 +1258,7 @@
     <col min="6" max="6" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="18">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1205,12 +1266,12 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="16" thickBot="1">
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="16" thickBot="1">
       <c r="A2" s="2"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1">
+    <row r="3" spans="1:6" ht="16" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1228,7 +1289,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1242,37 +1303,53 @@
       <c r="E4" s="12">
         <v>38356</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="F4"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="11"/>
       <c r="B5" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="12">
         <v>38356</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="E6" s="15">
+        <v>41114</v>
+      </c>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/plosdata/src/main/resources/plos_articles_2.xlsx
+++ b/plosdata/src/main/resources/plos_articles_2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>PLOS articles citation</t>
   </si>
@@ -33,47 +33,143 @@
     <t>Authors</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Department of Chemistry and Biochemistry</t>
+  </si>
+  <si>
+    <t>Truth, Probability, and Frameworks</t>
+  </si>
+  <si>
+    <t>Jonathan D Wren</t>
+  </si>
+  <si>
+    <t>Wren JD (2005) Truth, Probability, and Frameworks. PLoS Med 2(11): e361. doi:10.1371/journal.pmed.0020361</t>
+  </si>
+  <si>
+    <t>Plant-Symbiotic Fungi as Chemical Engineers: Multi-Genome Analysis of the Clavicipitaceae Reveals Dynamics of Alkaloid Loci</t>
+  </si>
+  <si>
+    <t>Bruce A. Roe</t>
+  </si>
+  <si>
+    <t>Schardl CL, Young CA, Hesse U, Amyotte SG, Andreeva K, et al. (2013) Plant-Symbiotic Fungi as Chemical Engineers: Multi-Genome Analysis of the Clavicipitaceae Reveals Dynamics of Alkaloid Loci. PLoS Genet 9(2): e1003323. doi:10.1371/journal.pgen.1003323</t>
+  </si>
+  <si>
+    <t>Cryptocephal, the Drosophila melanogaster ATF4, Is a Specific Coactivator for Ecdysone Receptor Isoform B2</t>
+  </si>
+  <si>
+    <t>Sebastien A. Gauthier</t>
+  </si>
+  <si>
+    <t>Department of Biolog</t>
+  </si>
+  <si>
+    <t>Gauthier SA, VanHaaften E, Cherbas L, Cherbas P, Hewes RS (2012) Cryptocephal, the Drosophila melanogaster ATF4, Is a Specific Coactivator for Ecdysone Receptor Isoform B2. PLoS Genetics 8(8): e1002883. doi:10.1371/journal.pgen.1002883</t>
+  </si>
+  <si>
+    <t>Randall S. Hewes</t>
+  </si>
+  <si>
+    <t>Genetic Evidence for an Indispensable Role of Somatic Embryogenesis Receptor Kinases in Brassinosteroid Signaling</t>
+  </si>
+  <si>
+    <t>Kai He</t>
+  </si>
+  <si>
+    <t>Department of Botany and Microbiology</t>
+  </si>
+  <si>
+    <t>Gou X, Yin H, He K, Du J, Yi J, et al. (2012) Genetic Evidence for an Indispensable Role of Somatic Embryogenesis Receptor Kinases in Brassinosteroid Signaling. PLoS Genet 8(1): e1002452. doi:10.1371/journal.pgen.1002452</t>
+  </si>
+  <si>
+    <t>Jia Li</t>
+  </si>
+  <si>
+    <t>The Thermoanaerobacter Glycobiome Reveals Mechanisms of Pentose and Hexose Co-Utilization in Bacteria</t>
+  </si>
+  <si>
+    <t>Lu Lin</t>
+  </si>
+  <si>
+    <t>Lin L, Song H, Tu Q, Qin Y, Zhou A, et al. (2011) The Thermoanaerobacter Glycobiome Reveals Mechanisms of Pentose and Hexose Co-Utilization in Bacteria. PLoS Genet 7(10): e1002318. doi:10.1371/journal.pgen.1002318</t>
+  </si>
+  <si>
+    <t>Qichao Tu</t>
+  </si>
+  <si>
+    <t>Yujia Qin</t>
+  </si>
+  <si>
+    <t>Aifen Zhou</t>
+  </si>
+  <si>
+    <t>Wenbin Liu</t>
+  </si>
+  <si>
+    <t>Zhili He</t>
+  </si>
+  <si>
+    <t>Jizhong Zhou</t>
+  </si>
+  <si>
+    <t>A Genome-Wide Survey of Imprinted Genes in Rice Seeds Reveals Imprinting Primarily Occurs in the Endosperm</t>
+  </si>
+  <si>
+    <t>Scott Russell</t>
+  </si>
+  <si>
+    <t>Luo M, Taylor JM, Spriggs A, Zhang H, Wu X, et al. (2011) A Genome-Wide Survey of Imprinted Genes in Rice Seeds Reveals Imprinting Primarily Occurs in the Endosperm. PLoS Genet 7(6): e1002125. doi:10.1371/journal.pgen.1002125</t>
+  </si>
+  <si>
+    <t>Spatial Distribution and Risk Factors of Highly Pathogenic Avian Influenza (HPAI) H5N1 in China</t>
+  </si>
+  <si>
+    <t>Xiangming Xiao</t>
+  </si>
+  <si>
+    <t>Martin V, Pfeiffer DU, Zhou X, Xiao X, Prosser DJ, et al. (2011) Spatial Distribution and Risk Factors of Highly Pathogenic Avian Influenza (HPAI) H5N1 in China. PLoS Pathog 7(3): e1001308. doi:10.1371/journal.ppat.1001308</t>
+  </si>
+  <si>
+    <t>Israeli Acute Paralysis Virus: Epidemiology, Pathogenesis and Implications for Honey Bee Health</t>
+  </si>
+  <si>
+    <t>Ai Fen Zhou</t>
+  </si>
+  <si>
+    <t>Institute for Environmental Genomics (IEG), University of Oklahoma</t>
+  </si>
+  <si>
+    <t>Chen YP, Pettis JS, Corona M, Chen WP, Li CJ, et al. (2014) Israeli Acute Paralysis Virus: Epidemiology, Pathogenesis and Implications for Honey Bee Health. PLoS Pathog 10(7): e1004261. doi:10.1371/journal.ppat.1004261</t>
+  </si>
+  <si>
+    <t>Li You Wu</t>
+  </si>
+  <si>
+    <t>Ji Zhong Zhou</t>
+  </si>
+  <si>
+    <t>Sorghum Genome Sequencing by Methylation Filtration</t>
+  </si>
+  <si>
     <t>Graham Wiley</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Sorghum Genome Sequencing by Methylation Filtration</t>
-  </si>
-  <si>
-    <t>Department of Chemistry and Biochemistry</t>
-  </si>
-  <si>
     <t>Bruce A Roe</t>
   </si>
   <si>
     <t>Bedell JA, Budiman MA, Nunberg A, Citek RW, Robbins D, et al. (2005) Sorghum Genome Sequencing by Methylation Filtration. PLoS Biol 3(1): e13. doi:10.1371/journal.pbio.0030013</t>
-  </si>
-  <si>
-    <t>Structure and Dynamics of Amyloid-β Segmental Polymorphisms</t>
-  </si>
-  <si>
-    <t>Workalemahu M. Berhanu</t>
-  </si>
-  <si>
-    <t>Chemistry and Biochemistry</t>
-  </si>
-  <si>
-    <t>Berhanu WM, Hansmann UHE (2012) Structure and Dynamics of Amyloid-β Segmental Polymorphisms. PLoS ONE 7(7): e41479. doi:10.1371/journal.pone.0041479</t>
-  </si>
-  <si>
-    <t>Ulrich H. E. Hansmann</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +210,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -138,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,6 +292,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -198,55 +336,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -561,7 +650,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -586,19 +675,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1242,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1279,77 +1376,321 @@
         <v>3</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="19" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12">
+      <c r="C4" s="12"/>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13">
+        <v>38685</v>
+      </c>
+      <c r="F4"/>
+    </row>
+    <row r="5" spans="1:6" ht="19" thickBot="1">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="17">
+        <v>41333</v>
+      </c>
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:6" ht="19" thickBot="1">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="15">
+        <v>41130</v>
+      </c>
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:6" ht="19" thickBot="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15">
+        <v>41130</v>
+      </c>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:6" ht="19" thickBot="1">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15">
+        <v>40920</v>
+      </c>
+      <c r="F8"/>
+    </row>
+    <row r="9" spans="1:6" ht="19" thickBot="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="15">
+        <v>40920</v>
+      </c>
+      <c r="F9"/>
+    </row>
+    <row r="10" spans="1:6" ht="19" thickBot="1">
+      <c r="A10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F10"/>
+    </row>
+    <row r="11" spans="1:6" ht="19" thickBot="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F11"/>
+    </row>
+    <row r="12" spans="1:6" ht="19" thickBot="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F12"/>
+    </row>
+    <row r="13" spans="1:6" ht="19" thickBot="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F13"/>
+    </row>
+    <row r="14" spans="1:6" ht="19" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F14"/>
+    </row>
+    <row r="15" spans="1:6" ht="19" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:6" ht="19" thickBot="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="15">
+        <v>40829</v>
+      </c>
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" ht="19" thickBot="1">
+      <c r="A17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="18">
+        <v>40717</v>
+      </c>
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" ht="19" thickBot="1">
+      <c r="A18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="15">
+        <v>40605</v>
+      </c>
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" ht="19" thickBot="1">
+      <c r="A19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="15">
+        <v>41851</v>
+      </c>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" ht="19" thickBot="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" ht="19" thickBot="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1">
+      <c r="A22" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20">
         <v>38356</v>
       </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="20">
         <v>38356</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="15">
-        <v>41114</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="9"/>
+      <c r="F23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
